--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F12" s="3">
         <v>10200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-9100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,25 +1089,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,28 +1121,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-10100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,54 +1509,66 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>370700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>124800</v>
+      </c>
+      <c r="F41" s="3">
         <v>33300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>43900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>53700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>31500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,28 +1786,34 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1841,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>373600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>125700</v>
+      </c>
+      <c r="F46" s="3">
         <v>34500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>45400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>54700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>33500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,19 +1961,19 @@
         <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1765,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>375600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>131100</v>
+      </c>
+      <c r="F54" s="3">
         <v>39500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>49900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>58600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>35700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2225,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2291,84 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2396,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,37 +2656,49 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>235100</v>
+      </c>
+      <c r="F70" s="3">
         <v>144300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>144000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>143700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>112100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-114900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-102600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-93600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-83500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-117900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-112400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-100500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-91800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-81900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,10 +3059,16 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>259800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>101700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>29200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>44800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>245900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>91400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>22200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>39900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,70 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +762,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +865,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F12" s="3">
         <v>11800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,29 +963,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1043,51 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F17" s="3">
         <v>15600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1095,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1089,31 +1156,37 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,34 +1194,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-12100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-12200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-10100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-9300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,48 +1261,60 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1252,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-12300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-22000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-12600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1509,66 +1648,78 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-22000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-12600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-22000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-12600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,66 +1878,74 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>206700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>268600</v>
+      </c>
+      <c r="F41" s="3">
         <v>370700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>124800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>33300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>43900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>53700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>31500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>82600</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1777,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1792,28 +1977,34 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +2038,96 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>330500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>354000</v>
+      </c>
+      <c r="F46" s="3">
         <v>373600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>125700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>34500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>45400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>54700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>33500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,34 +2161,40 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -1987,8 +2202,14 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2325,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2407,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>333100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>355900</v>
+      </c>
+      <c r="F54" s="3">
         <v>375600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>131100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>39500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>49900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>58600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>35700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2486,51 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,78 +2564,96 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,43 +2687,55 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2851,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,34 +3006,40 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>235100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>144300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>144000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>143700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>112100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-192000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-142800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-127200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-114900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-102600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-93600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-83500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3237,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>321500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>344300</v>
+      </c>
+      <c r="F76" s="3">
         <v>365500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-117900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-112400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-91800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-81900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-22000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-12600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,16 +3427,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3065,10 +3462,16 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-13600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-8800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3731,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3850,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +4072,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>259800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>101700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>29200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>44800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +4154,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="F102" s="3">
         <v>245900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>91400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>22200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>39900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E12" s="3">
         <v>20700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,29 +989,32 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26100</v>
+        <v>31400</v>
       </c>
       <c r="E17" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F17" s="3">
         <v>23200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1187,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1231,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,54 +1307,60 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26000</v>
+        <v>-31300</v>
       </c>
       <c r="E23" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26000</v>
+        <v>-31300</v>
       </c>
       <c r="E26" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26000</v>
+        <v>-31300</v>
       </c>
       <c r="E27" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1715,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26000</v>
+        <v>-31300</v>
       </c>
       <c r="E33" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26000</v>
+        <v>-31300</v>
       </c>
       <c r="E35" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,38 +1966,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E41" s="3">
         <v>206700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>268600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>370700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>124800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1921,20 +2008,23 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E42" s="3">
         <v>120000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>82600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1947,8 +2037,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1983,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>200</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,38 +2140,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2085,38 +2184,41 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E46" s="3">
         <v>330500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>354000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>373600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>125700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>54700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,19 +2272,22 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>2000</v>
@@ -2188,17 +2296,17 @@
         <v>2000</v>
       </c>
       <c r="I48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,29 +2460,29 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,38 +2536,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>331800</v>
+      </c>
+      <c r="E54" s="3">
         <v>333100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>355900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>375600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>131100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,38 +2618,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,38 +2704,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2600</v>
       </c>
       <c r="J59" s="3">
         <v>2600</v>
       </c>
       <c r="K59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2611,38 +2748,41 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,38 +2836,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,38 +3012,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3012,23 +3180,23 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>235100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>144300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>144000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>143700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>112100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,38 +3250,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-223300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-192000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-166000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-127200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-102600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-93600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-83500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,38 +3426,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E76" s="3">
         <v>321500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>344300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>365500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-117900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-112400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-91800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-81900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26000</v>
+        <v>-31300</v>
       </c>
       <c r="E81" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,10 +3637,10 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3468,10 +3667,13 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,31 +3963,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,40 +4083,43 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>259800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>101700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>44800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-60700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-102100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>245900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>91400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E12" s="3">
         <v>24600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,29 +1012,32 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E17" s="3">
         <v>31400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,40 +1224,43 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1268,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-25500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,84 +1788,90 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2053,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E41" s="3">
         <v>99600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>206700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>268600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>370700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>124800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,14 +2110,14 @@
         <v>202800</v>
       </c>
       <c r="E42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="F42" s="3">
         <v>120000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>82600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2040,8 +2130,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,13 +2145,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2079,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>200</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,41 +2239,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,41 +2286,44 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>275500</v>
+      </c>
+      <c r="E46" s="3">
         <v>304400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>330500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>354000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>373600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>125700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>45400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,22 +2380,25 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E48" s="3">
         <v>26200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2000</v>
       </c>
       <c r="H48" s="3">
         <v>2000</v>
@@ -2299,17 +2407,17 @@
         <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,41 +2568,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2662,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E54" s="3">
         <v>331800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>333100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>355900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>375600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>131100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2749,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,41 +2841,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2600</v>
       </c>
       <c r="K59" s="3">
         <v>2600</v>
       </c>
       <c r="L59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,41 +2888,44 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,41 +2982,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E62" s="3">
         <v>26200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3170,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E66" s="3">
         <v>36400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,23 +3351,23 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>235100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>144300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>144000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>143700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>112100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3424,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-258900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-223300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-192000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-166000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-127200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-102600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-93600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-83500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3612,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E76" s="3">
         <v>295300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>321500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>344300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>365500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-117900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-112400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-91800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-81900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,22 +3826,23 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3670,10 +3869,13 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,43 +4174,44 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,43 +4313,46 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-83100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>259800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>101700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>44800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-107100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-60700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-102100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>245900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>91400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E12" s="3">
         <v>27600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,29 +1034,32 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E17" s="3">
         <v>35700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-31400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,40 +1260,43 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,60 +1392,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,87 +1860,93 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2139,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E41" s="3">
         <v>68500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>206700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>268600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>370700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>124800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,26 +2187,29 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>202800</v>
+        <v>167900</v>
       </c>
       <c r="E42" s="3">
         <v>202800</v>
       </c>
       <c r="F42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="G42" s="3">
         <v>120000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>82600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2133,8 +2222,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2148,17 +2237,20 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2175,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>200</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,44 +2337,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2289,44 +2387,47 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>247700</v>
+      </c>
+      <c r="E46" s="3">
         <v>275500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>304400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>330500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>354000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>373600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>125700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,25 +2487,28 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E48" s="3">
         <v>32900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>2000</v>
@@ -2410,17 +2517,17 @@
         <v>2000</v>
       </c>
       <c r="K48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2687,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2787,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E54" s="3">
         <v>310200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>331800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>333100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>355900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>375600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>131100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +2879,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,44 +2977,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2600</v>
       </c>
       <c r="L59" s="3">
         <v>2600</v>
       </c>
       <c r="M59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,44 +3027,47 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E60" s="3">
         <v>11900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,44 +3127,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E62" s="3">
         <v>33800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3327,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E66" s="3">
         <v>45700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3354,23 +3521,23 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>235100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>144300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>144000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>143700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>112100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,44 +3597,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-296300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-258900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-223300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-192000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-166000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-127200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-102600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-93600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-83500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3474,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,44 +3797,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>231900</v>
+      </c>
+      <c r="E76" s="3">
         <v>264500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>295300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>321500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>344300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>365500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-117900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-112400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-91800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-81900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,25 +4024,26 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3872,10 +4070,13 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,46 +4394,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,46 +4542,49 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-83100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>259800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>101700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>44800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-107100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-102100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>245900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>91400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>27200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,29 +1057,32 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E17" s="3">
         <v>37500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,40 +1297,43 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-35000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,66 +1435,72 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1863,90 +1933,96 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,47 +2226,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E41" s="3">
         <v>74800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>99600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>206700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>268600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>370700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>124800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2190,29 +2277,32 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E42" s="3">
         <v>167900</v>
-      </c>
-      <c r="E42" s="3">
-        <v>202800</v>
       </c>
       <c r="F42" s="3">
         <v>202800</v>
       </c>
       <c r="G42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="H42" s="3">
         <v>120000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>82600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2225,8 +2315,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2240,20 +2330,23 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2270,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>200</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,47 +2436,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2390,47 +2489,50 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E46" s="3">
         <v>247700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>275500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>304400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>330500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>354000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>373600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>125700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,28 +2595,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E48" s="3">
         <v>38200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2000</v>
       </c>
       <c r="J48" s="3">
         <v>2000</v>
@@ -2520,17 +2628,17 @@
         <v>2000</v>
       </c>
       <c r="L48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,47 +2807,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>250600</v>
+      </c>
+      <c r="E54" s="3">
         <v>287000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>310200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>331800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>333100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>355900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>375600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>131100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,47 +3010,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,47 +3114,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>10600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2600</v>
       </c>
       <c r="M59" s="3">
         <v>2600</v>
       </c>
       <c r="N59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3030,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E60" s="3">
         <v>21700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,47 +3273,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E62" s="3">
         <v>33400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E66" s="3">
         <v>55100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,23 +3692,23 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>235100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>144300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>144000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>143700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>112100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,47 +3771,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-331700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-296300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-258900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-223300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-192000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-166000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-127200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-102600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-93600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-83500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,47 +3983,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E76" s="3">
         <v>231900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>264500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>295300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>321500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>344300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>365500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-117900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-112400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-91800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-81900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,19 +4233,19 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4073,10 +4272,13 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,49 +4615,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,49 +4772,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E94" s="3">
         <v>33700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-83100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>259800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>101700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>44800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-107100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-102100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>245900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>91400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,29 +1080,32 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E17" s="3">
         <v>35400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-37500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-35700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,40 +1334,43 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-36900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1502,8 +1548,8 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1936,93 +2006,99 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E41" s="3">
         <v>112800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>206700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>268600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>370700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>124800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,32 +2367,35 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E42" s="3">
         <v>93800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>167900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>202800</v>
       </c>
       <c r="G42" s="3">
         <v>202800</v>
       </c>
       <c r="H42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="I42" s="3">
         <v>120000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>82600</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,8 +2408,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2333,23 +2423,26 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2366,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>200</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E46" s="3">
         <v>211300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>247700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>275500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>304400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>330500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>354000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>373600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>45400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,31 +2703,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E48" s="3">
         <v>37900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>38200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2000</v>
       </c>
       <c r="K48" s="3">
         <v>2000</v>
@@ -2631,17 +2739,17 @@
         <v>2000</v>
       </c>
       <c r="M48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E54" s="3">
         <v>250600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>287000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>310200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>331800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>333100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>355900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>375600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>131100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
         <v>9400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2600</v>
       </c>
       <c r="N59" s="3">
         <v>2600</v>
       </c>
       <c r="O59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E60" s="3">
         <v>17100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,50 +3419,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E62" s="3">
         <v>32900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E66" s="3">
         <v>50000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,23 +3863,23 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>235100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>144300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>144000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>143700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>112100</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-368800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-331700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-296300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-258900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-223300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-192000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-166000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-127200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-102600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-93600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E76" s="3">
         <v>200600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>231900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>264500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>295300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>321500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>344300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>365500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-117900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-112400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-91800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-81900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,19 +4435,19 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4275,10 +4474,13 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-29700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,52 +4836,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,52 +5002,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E94" s="3">
         <v>68300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>33700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-37600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>259800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>101700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>44800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>38000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-107100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-102100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>245900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E12" s="3">
         <v>29100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,29 +1103,32 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E17" s="3">
         <v>37400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-35700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1337,40 +1371,43 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-34900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-36900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1551,8 +1597,8 @@
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2009,96 +2079,102 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2400,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E41" s="3">
         <v>104600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>206700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>268600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>370700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>124800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>53700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2370,35 +2457,38 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E42" s="3">
         <v>73000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>93800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>167900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>202800</v>
       </c>
       <c r="H42" s="3">
         <v>202800</v>
       </c>
       <c r="I42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="J42" s="3">
         <v>120000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>82600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2411,8 +2501,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2437,15 +2530,15 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2462,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>200</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2634,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,53 +2693,56 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E46" s="3">
         <v>181400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>211300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>247700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>275500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>304400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>330500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>354000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>373600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>125700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>54700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,34 +2811,37 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E48" s="3">
         <v>37300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>38200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2000</v>
       </c>
       <c r="L48" s="3">
         <v>2000</v>
@@ -2742,17 +2850,17 @@
         <v>2000</v>
       </c>
       <c r="N48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3047,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3165,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>312700</v>
+      </c>
+      <c r="E54" s="3">
         <v>220700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>250600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>287000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>310200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>331800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>333100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>355900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>375600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>131100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3272,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,53 +3388,56 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E59" s="3">
         <v>10000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2600</v>
       </c>
       <c r="O59" s="3">
         <v>2600</v>
       </c>
       <c r="P59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,53 +3447,56 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E60" s="3">
         <v>20300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,53 +3565,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E62" s="3">
         <v>32400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3801,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E66" s="3">
         <v>52700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,23 +4034,23 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>235100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>144300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>144000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>143700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>112100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4119,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-403900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-368800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-331700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-296300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-258900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-223300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-192000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-166000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-127200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-102600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-93600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4355,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>260600</v>
+      </c>
+      <c r="E76" s="3">
         <v>168000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>231900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>264500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>295300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>321500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>344300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>365500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-117900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-112400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-91800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-81900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,19 +4637,19 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4477,10 +4676,13 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,55 +5057,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,55 +5232,58 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E94" s="3">
         <v>19700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>68300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>33700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>259800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>101700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>29200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>44800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-107100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-102100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>245900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F12" s="3">
         <v>27900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>29100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>27000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>27200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>27600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>24600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>20700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>18000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,31 +1101,37 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1106,29 +1145,35 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1257,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F17" s="3">
         <v>36100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>37400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>35400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>37500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>35700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>31400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>23200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>12200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-37400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-35400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-37500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-35700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-31400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-23200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-15600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-12200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,13 +1423,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1374,40 +1441,46 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-36600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-34900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-36900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-35000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-30800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-15500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-12100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-12200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-8800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-9300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-8500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1603,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-37100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-35400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-37400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-35600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-31300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-23200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-9400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1600,11 +1691,11 @@
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1642,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-37100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-35400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-37400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-35600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-31300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-35100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-37100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-35400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-37400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-35600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-31300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-26100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-22000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-9200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,13 +2203,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2082,99 +2221,111 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-35100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-37100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-35400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-37400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-35600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-31300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-26100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-22000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-12600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-35100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-37100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-35400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-37400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-35600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-31300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-26100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-22000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-12600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,100 +2572,108 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F41" s="3">
         <v>210700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>104600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>112800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>74800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>68500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>99600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>206700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>268600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>370700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>124800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>33300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>43900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>53700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>31500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>102600</v>
+      </c>
+      <c r="F42" s="3">
         <v>58900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>73000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>93800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>167900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>202800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>202800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>120000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>82600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2504,11 +2683,11 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2519,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2533,18 +2718,18 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2558,28 +2743,34 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2828,144 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>232500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>248100</v>
+      </c>
+      <c r="F46" s="3">
         <v>274800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>181400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>211300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>247700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>275500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>304400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>330500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>354000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>373600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>125700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>34500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>45400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>54700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>33500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,58 +3023,64 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F48" s="3">
         <v>36700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>37300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>37900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>38200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>32900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>26200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2000</v>
       </c>
       <c r="N48" s="3">
         <v>2000</v>
       </c>
       <c r="O48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="P48" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>2100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1800</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
       </c>
       <c r="J52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>285100</v>
+      </c>
+      <c r="F54" s="3">
         <v>312700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>220700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>250600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>287000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>310200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>331800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>333100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>355900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>375600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>131100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>39500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>49900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>58600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>35700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>11200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3658,144 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F59" s="3">
         <v>13300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F60" s="3">
         <v>20200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>20300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,67 +3853,79 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F62" s="3">
         <v>31900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>32400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>32900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>33400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>33800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>26200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F66" s="3">
         <v>52100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>52700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>50000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>55100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>45700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>36400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4037,34 +4372,40 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>235100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>144300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>144000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>143700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>112100</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-476900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-438300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-403900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-368800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-331700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-296300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-258900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-223300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-192000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-166000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-142800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-127200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-114900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-102600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-93600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-83500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>231200</v>
+      </c>
+      <c r="F76" s="3">
         <v>260600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>168000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>200600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>231900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>264500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>295300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>321500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>344300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>365500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-117900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-112400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-100500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-91800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-81900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-35100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-37100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-35400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-37400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-35600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-31300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-26100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-22000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-12600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4640,22 +5037,22 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4679,10 +5076,16 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-28200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-30300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-28300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-29700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-24700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-23400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-19300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-13600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-8800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-5200</v>
       </c>
       <c r="G91" s="3">
         <v>-900</v>
       </c>
       <c r="H91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="F94" s="3">
         <v>14100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>19700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>68300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>33700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-83100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-37600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-82900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>122700</v>
+        <v>17600</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>122700</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>259800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>101700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>29200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>44800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="F102" s="3">
         <v>106000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>38000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-31100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-107100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-60700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-102100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>245900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>91400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-10600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>22200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>39900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E12" s="3">
         <v>32300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,8 +1153,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1151,29 +1171,32 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E17" s="3">
         <v>41200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-36700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,16 +1457,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1447,40 +1481,43 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-33900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-36600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,8 +1743,8 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-35400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-35600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-35400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,16 +2273,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2227,105 +2297,111 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-35400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-35400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E41" s="3">
         <v>144100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>210700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>74800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>206700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>268600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>370700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>124800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,44 +2726,47 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E42" s="3">
         <v>84000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>58900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>73000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>93800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>167900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>202800</v>
       </c>
       <c r="K42" s="3">
         <v>202800</v>
       </c>
       <c r="L42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="M42" s="3">
         <v>120000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>82600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2689,8 +2779,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2724,15 +2817,15 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2749,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>200</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,62 +2930,65 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197600</v>
+      </c>
+      <c r="E46" s="3">
         <v>232500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>248100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>274800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>181400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>211300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>247700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>275500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>304400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>330500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>354000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>373600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>125700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>54700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,43 +3134,46 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E48" s="3">
         <v>35200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2000</v>
       </c>
       <c r="O48" s="3">
         <v>2000</v>
@@ -3074,17 +3182,17 @@
         <v>2000</v>
       </c>
       <c r="Q48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,50 +3421,50 @@
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1200</v>
       </c>
       <c r="L52" s="3">
         <v>1200</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E54" s="3">
         <v>268800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>285100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>312700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>220700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>250600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>287000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>310200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>331800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>333100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>355900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>375600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>131100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>49900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3664,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E59" s="3">
         <v>12600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2600</v>
       </c>
       <c r="R59" s="3">
         <v>2600</v>
       </c>
       <c r="S59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E60" s="3">
         <v>22900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,62 +4002,65 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E62" s="3">
         <v>31000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53900</v>
+        <v>48300</v>
       </c>
       <c r="E66" s="3">
         <v>53900</v>
       </c>
       <c r="F66" s="3">
+        <v>53900</v>
+      </c>
+      <c r="G66" s="3">
         <v>52100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4378,23 +4546,23 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>235100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>144300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>144000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>143700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>112100</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-512100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-476900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-438300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-403900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-368800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-331700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-296300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-258900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-223300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-192000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-166000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-127200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-114900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-102600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-93600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-83500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E76" s="3">
         <v>214900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>231200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>260600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>168000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>231900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>264500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>295300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>321500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>344300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>365500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-117900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-112400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-100500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-91800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-81900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-35400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5043,19 +5242,19 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5082,10 +5281,13 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,64 +5719,65 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,64 +5921,67 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E94" s="3">
         <v>19500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>68300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>33700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>17600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>122700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>259800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>101700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>29200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>44800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-70600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>106000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-107100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-102100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>245900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>91400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>22200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>ANNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E12" s="3">
         <v>30300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1156,8 +1176,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1174,29 +1194,32 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E17" s="3">
         <v>37700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-41200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-31400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,19 +1491,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1484,40 +1518,43 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1562,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-38100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-22900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1746,8 +1792,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-35400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-35600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-35400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,19 +2343,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2300,108 +2370,114 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-35400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-35400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2747,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E41" s="3">
         <v>113600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>140000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>210700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>112800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>206700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>268600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>370700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>124800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>53700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2729,47 +2816,50 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E42" s="3">
         <v>79300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>84000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>102600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>58900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>93800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>167900</v>
-      </c>
-      <c r="K42" s="3">
-        <v>202800</v>
       </c>
       <c r="L42" s="3">
         <v>202800</v>
       </c>
       <c r="M42" s="3">
+        <v>202800</v>
+      </c>
+      <c r="N42" s="3">
         <v>120000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>82600</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2782,8 +2872,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2797,38 +2887,41 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2845,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>200</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,65 +3029,68 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3001,65 +3100,68 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E46" s="3">
         <v>197600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>232500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>248100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>274800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>181400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>211300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>247700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>275500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>304400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>330500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>354000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>373600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>125700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>54700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,46 +3242,49 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E48" s="3">
         <v>34400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2000</v>
       </c>
       <c r="P48" s="3">
         <v>2000</v>
@@ -3185,17 +3293,17 @@
         <v>2000</v>
       </c>
       <c r="R48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3424,50 +3544,50 @@
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1200</v>
       </c>
       <c r="M52" s="3">
         <v>1200</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3668,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203800</v>
+      </c>
+      <c r="E54" s="3">
         <v>233000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>268800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>285100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>312700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>220700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>250600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>287000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>310200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>331800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>333100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>355900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>375600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>131100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>58600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3795,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,65 +3935,68 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E59" s="3">
         <v>10700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>2600</v>
       </c>
       <c r="S59" s="3">
         <v>2600</v>
       </c>
       <c r="T59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3869,65 +4006,68 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E60" s="3">
         <v>17900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,65 +4148,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E62" s="3">
         <v>30400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4432,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E66" s="3">
         <v>48300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>53900</v>
       </c>
       <c r="F66" s="3">
         <v>53900</v>
       </c>
       <c r="G66" s="3">
+        <v>53900</v>
+      </c>
+      <c r="H66" s="3">
         <v>52100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4549,23 +4717,23 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>235100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>144300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>144000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>143700</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>112100</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4814,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-512100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-476900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-438300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-403900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-368800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-331700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-296300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-258900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-223300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-192000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-166000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-142800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-127200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-114900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-102600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-93600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-83500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5098,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E76" s="3">
         <v>184700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>214900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>231200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>260600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>168000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>231900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>264500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>295300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>321500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>344300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>365500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-117900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-112400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-91800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-81900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-35400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,19 +5444,19 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5284,10 +5483,13 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,58 +5950,58 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,67 +6151,70 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E94" s="3">
         <v>5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>19500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>19700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>68300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>33700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-82900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>122700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>259800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>101700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>29200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>44800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>106000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-107100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-102100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>245900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>91400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>22200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4600</v>
       </c>
     </row>
